--- a/AAII_Financials/Quarterly/SG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>SG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,118 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>479300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>414300</v>
+      </c>
+      <c r="F8" s="3">
         <v>425000</v>
       </c>
-      <c r="E8" s="3">
-        <v>423000</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>422400</v>
+      </c>
+      <c r="H8" s="3">
         <v>361000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>392000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>363700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>709500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>316300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>354600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>276600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>261500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +963,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,25 +1034,31 @@
         <v>3900</v>
       </c>
       <c r="I15" s="3">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="J15" s="3">
         <v>3900</v>
       </c>
       <c r="K15" s="3">
-        <v>3900</v>
+        <v>7900</v>
       </c>
       <c r="L15" s="3">
         <v>3900</v>
       </c>
       <c r="M15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O15" s="3">
         <v>2400</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>575800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>498300</v>
+      </c>
+      <c r="F17" s="3">
         <v>491000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>422700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>310800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>474600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>378700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>550000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>265400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>298000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>473100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>235400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-66000</v>
       </c>
-      <c r="E18" s="3">
-        <v>300</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>50200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-82600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>159500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>50900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>56600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-196500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F20" s="3">
         <v>62400</v>
       </c>
-      <c r="E20" s="3">
-        <v>18000</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>18600</v>
+      </c>
+      <c r="H20" s="3">
         <v>78700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-55200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>59800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>16400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-8900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>22300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>132800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-133800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-23100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>227200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>66000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>68500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-176200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>19600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G22" s="3">
         <v>8000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7700</v>
       </c>
       <c r="H22" s="3">
         <v>7600</v>
       </c>
       <c r="I22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K22" s="3">
         <v>15500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-136100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>121300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-145500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-34600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>203800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>54400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>56800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-185100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>17200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-14900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>62300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-12800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>104100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-130600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-27700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>141500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>43300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>48800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-172300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>86400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-149200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-28000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>133800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>38800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>45700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-179000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,32 +1588,38 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-29700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-62400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-78700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>55200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-59800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-16400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>8900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>86400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-149100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-28000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>133800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>38800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-179000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>86400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-149100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-28000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>133800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>38800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-179000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>136300</v>
+      </c>
+      <c r="F41" s="3">
         <v>145800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>116800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>116000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>119400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>106500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>114100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>174900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +2049,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>999400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>736800</v>
+      </c>
+      <c r="F43" s="3">
         <v>855500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>863300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>820400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>635600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>762600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>807400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>723900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,75 +2225,87 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3496000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3518200</v>
+      </c>
+      <c r="F47" s="3">
         <v>3513400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3466300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3464100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3409700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3519000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3436700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3516500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F48" s="3">
         <v>28800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>31500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>32000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,46 +2313,58 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>576700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>580600</v>
+      </c>
+      <c r="F49" s="3">
         <v>584200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>588300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>592400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>596200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>608200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>609200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>613600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>186300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F52" s="3">
         <v>176800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>188100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>184600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>215300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>212700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>213800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>234200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6757600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6413800</v>
+      </c>
+      <c r="F54" s="3">
         <v>6465100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6419200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6307000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6007700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6258700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6210100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6204600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>34700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>18100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>97300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2701,58 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4007400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3482600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3411100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3319800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3225400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2981400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3002500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2954400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2907100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,84 +2789,102 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>664800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>685200</v>
+      </c>
+      <c r="F61" s="3">
         <v>670300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>685900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>686100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>696800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>697700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>695900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>717600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>205900</v>
+      </c>
+      <c r="F62" s="3">
         <v>208600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>229700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>230600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>237400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>256900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>255700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>253100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5083900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4550400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4486500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4393800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4293400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4071000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4176900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4105000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4148800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,37 +3159,43 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>199600</v>
+      </c>
+      <c r="E70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F70" s="3">
         <v>236000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>241300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>240600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>232200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>108800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>108800</v>
       </c>
       <c r="J70" s="3">
         <v>108800</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>108800</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>108800</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>673700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>778500</v>
+      </c>
+      <c r="F72" s="3">
         <v>915800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>918500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>911800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>816600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>970200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>998200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>900400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1474100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1640400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1742600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1784100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1773000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1704500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1973000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1996300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1947000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>86400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-149100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-28000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>133800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>38800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-179000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3252,25 +3649,31 @@
         <v>3900</v>
       </c>
       <c r="I83" s="3">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="J83" s="3">
         <v>3900</v>
       </c>
       <c r="K83" s="3">
-        <v>3900</v>
+        <v>7900</v>
       </c>
       <c r="L83" s="3">
         <v>3900</v>
       </c>
       <c r="M83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F89" s="3">
         <v>72900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>24600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>72300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>22400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-38000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>11300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>18100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-81300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-126700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-60400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>366000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-325900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-60900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,109 +4333,127 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-280800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>339600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-10300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F102" s="3">
         <v>29300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>10700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-39100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>84900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-89300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>91400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>SG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>401900</v>
+      </c>
+      <c r="E8" s="3">
         <v>479300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>414300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>425000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>422400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>361000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>392000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>363700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>709500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>316300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>354600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>276600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>261500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,19 +986,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -989,61 +1009,64 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3900</v>
       </c>
       <c r="M15" s="3">
         <v>3900</v>
@@ -1052,13 +1075,16 @@
         <v>3900</v>
       </c>
       <c r="O15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P15" s="3">
         <v>2400</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>382600</v>
+      </c>
+      <c r="E17" s="3">
         <v>575800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>498300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>491000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>422700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>310800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>474600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>378700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>550000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>298000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>473100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>235400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-96500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-84000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-66000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-82600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>159500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-196500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-31800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-62300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>62400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>78700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-55200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>59800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-124400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-142300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>132800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-133800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>227200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-176200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7700</v>
       </c>
       <c r="F22" s="3">
         <v>7700</v>
       </c>
       <c r="G22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4800</v>
       </c>
       <c r="P22" s="3">
         <v>4800</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-136100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-154000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>121300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-145500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-185100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14800</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-3700</v>
       </c>
       <c r="F24" s="3">
         <v>-3700</v>
       </c>
       <c r="G24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-121300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-150300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>104100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-130600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>141500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-172300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-98100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-128000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>86400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-149200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>133800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-179000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,32 +1655,35 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-29700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E32" s="3">
         <v>31800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>62300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-62400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-78700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>55200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-59800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-98100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-128000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>86400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-149100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>133800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-179000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-98100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-128000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>86400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-149100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>133800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-179000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2053,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E41" s="3">
         <v>140500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>106500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>114100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>174900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,41 +2145,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>906100</v>
+      </c>
+      <c r="E43" s="3">
         <v>999400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>736800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>855500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>863300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>820400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>635600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>762600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>807400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>723900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,41 +2333,44 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3461500</v>
+      </c>
+      <c r="E47" s="3">
         <v>3496000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3518200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3513400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3466300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3464100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3409700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3519000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3436700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3516500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2275,29 +2380,32 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E48" s="3">
         <v>26100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2307,8 +2415,8 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,41 +2427,44 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>572700</v>
+      </c>
+      <c r="E49" s="3">
         <v>576700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>580600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>584200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>588300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>592400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>596200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>608200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>609200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>613600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2568,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E52" s="3">
         <v>186300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>181000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>176800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>188100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>184600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>215300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>212700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>213800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>234200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6664000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6757600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6413800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6465100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6419200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6307000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6007700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6258700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6210100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6204600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E57" s="3">
         <v>53000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,41 +2841,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3880300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4007400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3482600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3411100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3319800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3225400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2981400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3002500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2954400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2907100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,41 +2935,44 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>684900</v>
+      </c>
+      <c r="E61" s="3">
         <v>664800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>685200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>670300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>685900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>686100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>696800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>697700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>695900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>717600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2839,41 +2982,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E62" s="3">
         <v>183500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>205900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>208600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>229700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>230600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>237400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>256900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>255700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>253100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4938100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5083900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4550400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4486500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4393800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4293400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4071000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4176900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4105000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4148800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,31 +3330,34 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E70" s="3">
         <v>199600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>223000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>236000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>241300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>240600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>232200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>108800</v>
       </c>
       <c r="K70" s="3">
         <v>108800</v>
@@ -3198,7 +3366,7 @@
         <v>108800</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>108800</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3424,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E72" s="3">
         <v>673700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>778500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>915800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>918500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>911800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>816600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>970200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>998200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>900400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3612,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1519700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1474100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1640400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1742600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1784100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1773000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1704500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1973000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1996300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1947000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-98100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-128000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>86400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-149100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>133800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-179000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,37 +3826,38 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3900</v>
       </c>
       <c r="M83" s="3">
         <v>3900</v>
@@ -3667,13 +3866,16 @@
         <v>3900</v>
       </c>
       <c r="O83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E89" s="3">
         <v>115200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>72900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>18100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>366000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-325900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>1400</v>
       </c>
       <c r="M100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N100" s="3">
         <v>-280800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>339600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>84900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-89300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>91400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>SG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>386300</v>
+      </c>
+      <c r="E8" s="3">
         <v>401900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>479300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>414300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>425000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>422400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>361000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>392000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>363700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>709500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>316300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>354600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>276600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>261500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>231100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,11 +1020,11 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1012,64 +1032,67 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E15" s="3">
         <v>4000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3900</v>
       </c>
       <c r="N15" s="3">
         <v>3900</v>
@@ -1078,13 +1101,16 @@
         <v>3900</v>
       </c>
       <c r="P15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2400</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>468600</v>
+      </c>
+      <c r="E17" s="3">
         <v>382600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>575800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>498300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>491000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>422700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>310800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>474600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>378700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>550000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>265400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>298000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>473100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>235400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="E18" s="3">
         <v>19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-96500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-84000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-66000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-82600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>159500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>56600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-196500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-31800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-62300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>62400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>78700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-55200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>59800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E21" s="3">
         <v>15900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-124400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-142300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>132800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-133800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>227200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-176200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7700</v>
       </c>
       <c r="G22" s="3">
         <v>7700</v>
       </c>
       <c r="H22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4800</v>
       </c>
       <c r="Q22" s="3">
         <v>4800</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-136100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-154000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>121300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-145500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>203800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>56800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-185100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E24" s="3">
         <v>11200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-3700</v>
       </c>
       <c r="G24" s="3">
         <v>-3700</v>
       </c>
       <c r="H24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-121300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-150300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-130600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>141500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-172300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-98100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-128000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>86400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-149200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>133800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-179000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,32 +1719,35 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-29700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E32" s="3">
         <v>7400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>31800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>62300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-62400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-78700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>55200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-59800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-98100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-128000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>86400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-149100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>133800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-179000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-98100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-128000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>86400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-149100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>133800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-179000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2140,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168400</v>
+      </c>
+      <c r="E41" s="3">
         <v>186700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>145800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>114100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>174900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,44 +2238,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>808100</v>
+      </c>
+      <c r="E43" s="3">
         <v>906100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>999400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>736800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>855500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>863300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>820400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>635600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>762600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>807400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>723900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,44 +2438,47 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3638200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3461500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3496000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3518200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3513400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3466300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3464100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3409700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3519000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3436700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3516500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,32 +2488,35 @@
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E48" s="3">
         <v>28800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2430,44 +2538,47 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>568800</v>
+      </c>
+      <c r="E49" s="3">
         <v>572700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>576700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>580600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>584200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>588300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>592400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>596200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>608200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>609200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>613600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2688,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E52" s="3">
         <v>208200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>186300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>181000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>176800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>188100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>184600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>215300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>212700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>213800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>234200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2788,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6632800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6664000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6757600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6413800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6465100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6419200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6307000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6007700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6258700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6210100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6204600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2880,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E57" s="3">
         <v>11300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,44 +2978,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3888100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3880300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4007400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3482600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3411100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3319800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3225400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2981400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3002500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2954400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2907100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,44 +3078,47 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>695800</v>
+      </c>
+      <c r="E61" s="3">
         <v>684900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>664800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>685200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>670300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>685900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>686100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>696800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>697700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>695900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>717600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2985,44 +3128,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>213600</v>
+      </c>
+      <c r="E62" s="3">
         <v>207900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>183500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>205900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>208600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>229700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>230600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>237400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>256900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>255700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>253100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3328,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4976100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4938100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5083900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4550400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4486500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4393800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4293400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4071000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4176900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4105000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4148800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,34 +3498,37 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E70" s="3">
         <v>206200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>199600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>223000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>236000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>241300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>240600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>232200</v>
-      </c>
-      <c r="K70" s="3">
-        <v>108800</v>
       </c>
       <c r="L70" s="3">
         <v>108800</v>
@@ -3369,7 +3537,7 @@
         <v>108800</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>108800</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,44 +3598,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>564500</v>
+      </c>
+      <c r="E72" s="3">
         <v>660000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>673700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>778500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>915800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>918500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>911800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>816600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>970200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>998200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>900400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3798,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1459200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1519700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1474100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1640400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1742600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1784100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1773000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1704500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1973000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1996300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1947000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-98100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-128000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>86400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-149100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>133800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-179000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,40 +4025,41 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3900</v>
       </c>
       <c r="N83" s="3">
         <v>3900</v>
@@ -3869,13 +4068,16 @@
         <v>3900</v>
       </c>
       <c r="P83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>115200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>72900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E94" s="3">
         <v>89300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>18100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-126700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>366000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-325900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>1400</v>
       </c>
       <c r="N100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O100" s="3">
         <v>-280800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>339600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E101" s="3">
         <v>8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E102" s="3">
         <v>49100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>84900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-89300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>91400</v>
       </c>
     </row>
